--- a/resources/dataset_list.xlsx
+++ b/resources/dataset_list.xlsx
@@ -3065,4 +3065,243 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A17355BF03327842B56FC543F42AF29A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a7d94c6428359bfe06b3e86dd7d712c2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a717389a-64de-41cd-8d71-5d043265a322" xmlns:ns3="3ebe0b6c-b0c4-49a3-813d-dd938f54e7e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="795d1c509fc728e1eb1a98120b891791" ns2:_="" ns3:_="">
+    <xsd:import namespace="a717389a-64de-41cd-8d71-5d043265a322"/>
+    <xsd:import namespace="3ebe0b6c-b0c4-49a3-813d-dd938f54e7e3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a717389a-64de-41cd-8d71-5d043265a322" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="30fdde71-3d84-4f2a-8a39-a81d5da30a6e" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3ebe0b6c-b0c4-49a3-813d-dd938f54e7e3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6584f59b-4f7c-43ae-a572-655c02595a87}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="3ebe0b6c-b0c4-49a3-813d-dd938f54e7e3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3ebe0b6c-b0c4-49a3-813d-dd938f54e7e3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a717389a-64de-41cd-8d71-5d043265a322">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B49C03-3198-4044-9F6A-47B73CA54EF6}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1AF0874-A46F-4E38-A845-8D36E89F73CC}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75DDBCD7-F6E7-455D-BD18-D00D6361DD86}"/>
 </file>
--- a/resources/dataset_list.xlsx
+++ b/resources/dataset_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bushare-my.sharepoint.com/personal/mcl27_bu_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bushare.sharepoint.com/sites/GRP-SSW-IECOHD/Shared Documents/Data Team/COI/3.0/COI30_2023/COI-launch-visualizations-and-data/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{5DC1E2A0-8BC7-4E43-9A0C-498874736618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5F01AFF-5951-46E4-B046-FF7BCCD98AB5}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{5DC1E2A0-8BC7-4E43-9A0C-498874736618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CC978F3-368E-47E9-BD4A-D754C0FFEF81}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="6" activeTab="8" xr2:uid="{391D8C37-2A9B-4648-87F3-512F09261B8B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="2" xr2:uid="{391D8C37-2A9B-4648-87F3-512F09261B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="metro norm, levels, race" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="135">
   <si>
     <t>varlist with sample from previous year:</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>*there should be 500 rows in this dataset, five levels per 100 largest metros, year=2023.</t>
+  </si>
+  <si>
+    <t>status: DONE</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -839,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C182597B-6031-4EE7-ACD6-E68A3BFE1C8A}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1191,6 +1190,11 @@
         <v>87</v>
       </c>
     </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1198,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A28B41-27AB-481D-8FAC-4661FA69EC8B}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1594,6 +1598,11 @@
         <v>88</v>
       </c>
     </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1601,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE1B049-16DD-4AA1-A7F1-036B339BC3FC}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1934,6 +1943,11 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2151,7 +2165,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2897,7 +2911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E25698-DB70-44E7-8E70-A38C739F4728}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -3295,13 +3309,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B49C03-3198-4044-9F6A-47B73CA54EF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B49C03-3198-4044-9F6A-47B73CA54EF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a717389a-64de-41cd-8d71-5d043265a322"/>
+    <ds:schemaRef ds:uri="3ebe0b6c-b0c4-49a3-813d-dd938f54e7e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1AF0874-A46F-4E38-A845-8D36E89F73CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1AF0874-A46F-4E38-A845-8D36E89F73CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75DDBCD7-F6E7-455D-BD18-D00D6361DD86}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75DDBCD7-F6E7-455D-BD18-D00D6361DD86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ebe0b6c-b0c4-49a3-813d-dd938f54e7e3"/>
+    <ds:schemaRef ds:uri="a717389a-64de-41cd-8d71-5d043265a322"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resources/dataset_list.xlsx
+++ b/resources/dataset_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bushare.sharepoint.com/sites/GRP-SSW-IECOHD/Shared Documents/Data Team/COI/3.0/COI30_2023/COI-launch-visualizations-and-data/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdevoe\Desktop\git\COI-launch-visualizations-and-data\COI-launch-visualizations-and-data\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{5DC1E2A0-8BC7-4E43-9A0C-498874736618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CC978F3-368E-47E9-BD4A-D754C0FFEF81}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AF1FAA-07F1-44EB-993A-D7D388EB5AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="2" xr2:uid="{391D8C37-2A9B-4648-87F3-512F09261B8B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="3" xr2:uid="{391D8C37-2A9B-4648-87F3-512F09261B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="metro norm, levels, race" sheetId="1" r:id="rId1"/>
@@ -1612,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE1B049-16DD-4AA1-A7F1-036B339BC3FC}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -1959,9 +1959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2E6365-CF6D-4FCA-99C5-48E49439F148}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -3082,6 +3080,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3ebe0b6c-b0c4-49a3-813d-dd938f54e7e3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a717389a-64de-41cd-8d71-5d043265a322">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A17355BF03327842B56FC543F42AF29A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a7d94c6428359bfe06b3e86dd7d712c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a717389a-64de-41cd-8d71-5d043265a322" xmlns:ns3="3ebe0b6c-b0c4-49a3-813d-dd938f54e7e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="795d1c509fc728e1eb1a98120b891791" ns2:_="" ns3:_="">
     <xsd:import namespace="a717389a-64de-41cd-8d71-5d043265a322"/>
@@ -3288,27 +3306,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75DDBCD7-F6E7-455D-BD18-D00D6361DD86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ebe0b6c-b0c4-49a3-813d-dd938f54e7e3"/>
+    <ds:schemaRef ds:uri="a717389a-64de-41cd-8d71-5d043265a322"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="3ebe0b6c-b0c4-49a3-813d-dd938f54e7e3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a717389a-64de-41cd-8d71-5d043265a322">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1AF0874-A46F-4E38-A845-8D36E89F73CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B49C03-3198-4044-9F6A-47B73CA54EF6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3325,23 +3342,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1AF0874-A46F-4E38-A845-8D36E89F73CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75DDBCD7-F6E7-455D-BD18-D00D6361DD86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ebe0b6c-b0c4-49a3-813d-dd938f54e7e3"/>
-    <ds:schemaRef ds:uri="a717389a-64de-41cd-8d71-5d043265a322"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/resources/dataset_list.xlsx
+++ b/resources/dataset_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdevoe\Desktop\git\COI-launch-visualizations-and-data\COI-launch-visualizations-and-data\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AF1FAA-07F1-44EB-993A-D7D388EB5AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E865CA-B521-455A-B785-F82396E285C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="3" xr2:uid="{391D8C37-2A9B-4648-87F3-512F09261B8B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="6" activeTab="8" xr2:uid="{391D8C37-2A9B-4648-87F3-512F09261B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="metro norm, levels, race" sheetId="1" r:id="rId1"/>
@@ -1959,7 +1959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2E6365-CF6D-4FCA-99C5-48E49439F148}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2162,9 +2162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E5A22B-1032-4D93-BF73-563E6F6741D6}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2490,9 +2488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D51376D-2274-4CC7-A80A-CCBA9A94A05C}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2610,9 +2606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE2A43B-908E-4E3B-840B-1A4AA48D6A12}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2784,9 +2778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8278BBB-B64D-4272-AB6A-F198E06E7046}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2909,8 +2901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E25698-DB70-44E7-8E70-A38C739F4728}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3080,6 +3072,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="3ebe0b6c-b0c4-49a3-813d-dd938f54e7e3" xsi:nil="true"/>
@@ -3088,15 +3089,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3307,20 +3299,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1AF0874-A46F-4E38-A845-8D36E89F73CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75DDBCD7-F6E7-455D-BD18-D00D6361DD86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="3ebe0b6c-b0c4-49a3-813d-dd938f54e7e3"/>
     <ds:schemaRef ds:uri="a717389a-64de-41cd-8d71-5d043265a322"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1AF0874-A46F-4E38-A845-8D36E89F73CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
